--- a/config_4.27/activity_ty_task_config.xlsx
+++ b/config_4.27/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -361,10 +361,6 @@
   <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ltfl_banner_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_guess_apple_bet_1"</t>
@@ -768,6 +764,10 @@
   <si>
     <t>10000</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1305,7 +1305,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>41</v>
@@ -1324,7 +1324,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>42</v>
@@ -1341,7 +1341,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>63</v>
@@ -1358,7 +1358,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>64</v>
@@ -1375,7 +1375,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>65</v>
@@ -1392,7 +1392,7 @@
         <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>66</v>
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1459,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="13">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="13">
         <v>1</v>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1683,10 +1683,10 @@
         <v>1000563</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
@@ -1716,10 +1716,10 @@
         <v>1000564</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="16">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>43</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>36</v>
@@ -1751,10 +1751,10 @@
         <v>1000565</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
@@ -1784,10 +1784,10 @@
         <v>1000566</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="16">
         <v>1</v>
@@ -1796,7 +1796,7 @@
         <v>43</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>35</v>
@@ -1817,10 +1817,10 @@
         <v>1000567</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="16">
         <v>1</v>
@@ -1829,10 +1829,10 @@
         <v>43</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="24"/>
@@ -1850,10 +1850,10 @@
         <v>1000568</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="16">
         <v>1</v>
@@ -1862,10 +1862,10 @@
         <v>43</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="24"/>
@@ -1884,10 +1884,10 @@
         <v>1000569</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
@@ -1896,10 +1896,10 @@
         <v>43</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" s="22"/>
     </row>
@@ -1911,10 +1911,10 @@
         <v>1000570</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
@@ -1923,7 +1923,7 @@
         <v>43</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>73</v>
@@ -1938,10 +1938,10 @@
         <v>1000571</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="16">
         <v>1</v>
@@ -1950,7 +1950,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>73</v>
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>43</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>73</v>
@@ -1992,19 +1992,19 @@
         <v>1000573</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>72</v>
@@ -2019,19 +2019,19 @@
         <v>1000574</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="16">
         <v>1</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>34</v>
@@ -2046,19 +2046,19 @@
         <v>1000575</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>34</v>
@@ -2073,19 +2073,19 @@
         <v>1000576</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="16">
         <v>1</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>33</v>
@@ -2100,19 +2100,19 @@
         <v>1000577</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>34</v>
@@ -2127,19 +2127,19 @@
         <v>1000578</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="16">
-        <v>1</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>147</v>
-      </c>
       <c r="G17" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>34</v>
@@ -2157,16 +2157,16 @@
         <v>44</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>34</v>
@@ -2184,16 +2184,16 @@
         <v>45</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="16">
         <v>1</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>34</v>
@@ -2211,16 +2211,16 @@
         <v>31</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>34</v>
@@ -2238,16 +2238,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="16">
         <v>1</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>34</v>
@@ -2265,22 +2265,22 @@
         <v>3</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="18">
         <v>1</v>
       </c>
       <c r="F22" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2294,22 +2294,22 @@
         <v>3</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="18">
         <v>1</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>53</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2323,22 +2323,22 @@
         <v>3</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="18">
         <v>1</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2352,22 +2352,22 @@
         <v>3</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="18">
         <v>1</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>53</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2387,16 +2387,16 @@
         <v>1</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>53</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M26" s="19"/>
       <c r="O26" s="19"/>
@@ -2412,22 +2412,22 @@
         <v>3</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="18">
         <v>1</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>54</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M27" s="19"/>
       <c r="O27" s="19"/>
@@ -2443,22 +2443,22 @@
         <v>3</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="18">
         <v>1</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="17" t="s">
         <v>54</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
@@ -2476,22 +2476,22 @@
         <v>3</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="18">
         <v>1</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>55</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2505,22 +2505,22 @@
         <v>3</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="18">
         <v>1</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2534,22 +2534,22 @@
         <v>3</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="18">
         <v>1</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H31" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2563,22 +2563,22 @@
         <v>3</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="18">
         <v>1</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2598,16 +2598,16 @@
         <v>1</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2627,16 +2627,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2650,22 +2650,22 @@
         <v>3</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="18">
         <v>1</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M35" s="19"/>
       <c r="O35" s="19"/>
@@ -2687,16 +2687,16 @@
         <v>1</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M36" s="19"/>
       <c r="O36" s="19"/>
@@ -2712,22 +2712,22 @@
         <v>3</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="18">
         <v>1</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M37" s="19"/>
     </row>
@@ -2742,22 +2742,22 @@
         <v>3</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="18">
         <v>1</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2777,16 +2777,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2800,22 +2800,22 @@
         <v>3</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="18">
         <v>1</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2829,22 +2829,22 @@
         <v>3</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="18">
         <v>1</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.27/activity_ty_task_config.xlsx
+++ b/config_4.27/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
   <si>
     <t>index|索引</t>
   </si>
@@ -542,10 +542,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"78万-300万","20",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>26,27,28,29,30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -738,36 +734,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>10000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>wyfl_bg_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1305,7 +1297,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>41</v>
@@ -1324,7 +1316,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>42</v>
@@ -1341,7 +1333,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>63</v>
@@ -1358,7 +1350,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>64</v>
@@ -1375,7 +1367,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>65</v>
@@ -1392,7 +1384,7 @@
         <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>66</v>
@@ -1412,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1511,7 +1503,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1532,7 +1524,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1553,7 +1545,7 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1574,7 +1566,7 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1588,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1683,10 +1675,10 @@
         <v>1000563</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
@@ -1716,10 +1708,10 @@
         <v>1000564</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="16">
         <v>1</v>
@@ -1728,7 +1720,7 @@
         <v>43</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>36</v>
@@ -1751,10 +1743,10 @@
         <v>1000565</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
@@ -1784,10 +1776,10 @@
         <v>1000566</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="16">
         <v>1</v>
@@ -1796,7 +1788,7 @@
         <v>43</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>35</v>
@@ -1817,10 +1809,10 @@
         <v>1000567</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="16">
         <v>1</v>
@@ -1829,10 +1821,10 @@
         <v>43</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="24"/>
@@ -1850,10 +1842,10 @@
         <v>1000568</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="16">
         <v>1</v>
@@ -1862,10 +1854,10 @@
         <v>43</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="24"/>
@@ -1884,10 +1876,10 @@
         <v>1000569</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
@@ -1896,10 +1888,10 @@
         <v>43</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I8" s="22"/>
     </row>
@@ -1911,10 +1903,10 @@
         <v>1000570</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
@@ -1923,7 +1915,7 @@
         <v>43</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>73</v>
@@ -1938,10 +1930,10 @@
         <v>1000571</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="16">
         <v>1</v>
@@ -1950,7 +1942,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>73</v>
@@ -1968,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -1977,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>73</v>
@@ -1992,16 +1984,16 @@
         <v>1000573</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>156</v>
@@ -2019,16 +2011,16 @@
         <v>1000574</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="16">
         <v>1</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>157</v>
@@ -2046,16 +2038,16 @@
         <v>1000575</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>158</v>
@@ -2073,19 +2065,19 @@
         <v>1000576</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="16">
         <v>1</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>33</v>
@@ -2100,19 +2092,19 @@
         <v>1000577</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>34</v>
@@ -2127,19 +2119,19 @@
         <v>1000578</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="16">
-        <v>1</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="G17" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>34</v>
@@ -2157,16 +2149,16 @@
         <v>44</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>34</v>
@@ -2184,13 +2176,13 @@
         <v>45</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="16">
         <v>1</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>158</v>
@@ -2211,16 +2203,16 @@
         <v>31</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>34</v>
@@ -2238,16 +2230,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="16">
         <v>1</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>34</v>
@@ -2838,7 +2830,7 @@
         <v>74</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>51</v>
